--- a/data/timeline.xlsx
+++ b/data/timeline.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\OneDrive - The University of South Dakota\USD\Github Projects\NEON-mesocosm-experiment\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_946C2C74672092F95CF109F7DA0A90624F98307A" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E29EC072-1362-42B2-A20E-A44F06170803}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -110,29 +119,34 @@
   </si>
   <si>
     <t>End of experiment; Drain tanks</t>
+  </si>
+  <si>
+    <t>day_cumulative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -143,42 +157,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -368,28 +385,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.13"/>
-    <col customWidth="1" min="2" max="3" width="14.63"/>
-    <col customWidth="1" min="4" max="4" width="62.5"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,837 +420,990 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44692.0</v>
+        <v>44692</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>-15.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>-15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44693.0</v>
+        <v>44693</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>-14.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>-14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44694.0</v>
+        <v>44694</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>-13.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>-13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44695.0</v>
+        <v>44695</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>-12.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>-12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44696.0</v>
+        <v>44696</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>-11.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44697.0</v>
+        <v>44697</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>-10.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>-10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44698.0</v>
+        <v>44698</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>-9.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>-9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44699.0</v>
+        <v>44699</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>-8.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44700.0</v>
+        <v>44700</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>-7.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>-7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44701.0</v>
+        <v>44701</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>-6.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>-6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44702.0</v>
+        <v>44702</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>-5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>-5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44703.0</v>
+        <v>44703</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>-4.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44704.0</v>
+        <v>44704</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>-3.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44705.0</v>
+        <v>44705</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44706.0</v>
+        <v>44706</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>44707.0</v>
+        <v>44707</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>44708.0</v>
+        <v>44708</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>44709.0</v>
+        <v>44709</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>44710.0</v>
+        <v>44710</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>44711.0</v>
+        <v>44711</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>44712.0</v>
+        <v>44712</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>44714.0</v>
+        <v>44714</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>44715.0</v>
+        <v>44715</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>44716.0</v>
+        <v>44716</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>44717.0</v>
+        <v>44717</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>44718.0</v>
+        <v>44718</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>44719.0</v>
+        <v>44719</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>44720.0</v>
+        <v>44720</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>44721.0</v>
+        <v>44721</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>44722.0</v>
+        <v>44722</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>44723.0</v>
+        <v>44723</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>44724.0</v>
+        <v>44724</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>44725.0</v>
+        <v>44725</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>44726.0</v>
+        <v>44726</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44727.0</v>
+        <v>44727</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44728.0</v>
+        <v>44728</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="1">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44729.0</v>
+        <v>44729</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1">
+        <v>38</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44730.0</v>
+        <v>44730</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44731.0</v>
+        <v>44731</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>24</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44732.0</v>
+        <v>44732</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="D42" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D42" s="1">
+        <v>41</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44733.0</v>
+        <v>44733</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="D43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44734.0</v>
+        <v>44734</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44735.0</v>
+        <v>44735</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="D45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44736.0</v>
+        <v>44736</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1">
-        <v>29.0</v>
-      </c>
-      <c r="D46" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D46" s="1">
+        <v>45</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>29</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44737.0</v>
+        <v>44737</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44738.0</v>
+        <v>44738</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44739.0</v>
+        <v>44739</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="D49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="F49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44740.0</v>
+        <v>44740</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="1">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="F50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>44741.0</v>
+        <v>44741</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>